--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29000" windowHeight="13940"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
   <si>
     <t>case_module</t>
   </si>
@@ -72,6 +72,126 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>设置Google验证码</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
+    <t>获取google验证码kay</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/generateGoogleSecret</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{"new_secret":"$.data.secret"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true}</t>
+  </si>
+  <si>
+    <t>发送绑定google验证验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/sendSms</t>
+  </si>
+  <si>
+    <t>{"account":"${mobile}","areaNo":"${areaNo}","type":"google-secret"}</t>
+  </si>
+  <si>
+    <t>绑定google验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/bindOrUnbindGoogleCode</t>
+  </si>
+  <si>
+    <t>{"account":"${mobile}","bind":true,"code":"function:google_authentication_new_extra","verifyCode":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${mobile}' ORDER BY `create_time` DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>修改Google验证码</t>
+  </si>
+  <si>
+    <t>{"secret":"$.data.secret"}</t>
+  </si>
+  <si>
+    <t>{"account":"${mobile}","areaNo":"${areaNo}","type":"modify-google-secret"}</t>
+  </si>
+  <si>
+    <t>更新google验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/updateGoogleSecret</t>
+  </si>
+  <si>
+    <t>{"oldGoogleCode":"function:google_authentication_new_extra","newGoogleCode":"function:google_authentication_extra","verifyCode":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>设置支付密码</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>发送绑定支付密码验证码</t>
+  </si>
+  <si>
+    <t>{"account": "${mobile}", "areaNo": "${areaNo}", "type": "modify-trade-password"}</t>
+  </si>
+  <si>
+    <t>验证绑定支付密码验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/isValidCode</t>
+  </si>
+  <si>
+    <t>{"account":"${mobile}","areaNo":"${areaNo}","code":"function:extract_code","type":"modify-trade-password"}</t>
+  </si>
+  <si>
+    <t>{"code_key":"$.data"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${mobile}'  ORDER BY create_time DESC  LIMIT 1;</t>
+  </si>
+  <si>
+    <t>设置绑定支付密码123456</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/setTradePwd</t>
+  </si>
+  <si>
+    <t>{"code":"${code_key}","tradePwd":"123456"}</t>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
+    <t>修改绑定手机</t>
+  </si>
+  <si>
+    <t>修改绑定邮箱</t>
+  </si>
+  <si>
+    <t>修改登录密码</t>
+  </si>
+  <si>
+    <t>修改支付密码</t>
   </si>
 </sst>
 </file>
@@ -1060,14 +1180,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1136,6 +1256,377 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="34" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="34" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="34" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="28000" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>case_module</t>
   </si>
@@ -110,7 +110,7 @@
     <t>/api/forex-user/user/sendSms</t>
   </si>
   <si>
-    <t>{"account":"${mobile}","areaNo":"${areaNo}","type":"google-secret"}</t>
+    <t>{"account":"${my_email}","type":"google-secret"}</t>
   </si>
   <si>
     <t>绑定google验证码</t>
@@ -119,10 +119,10 @@
     <t>/api/forex-user/user/bindOrUnbindGoogleCode</t>
   </si>
   <si>
-    <t>{"account":"${mobile}","bind":true,"code":"function:google_authentication_new_extra","verifyCode":"function:extract_code"}</t>
-  </si>
-  <si>
-    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${mobile}' ORDER BY `create_time` DESC LIMIT 1;</t>
+    <t>{"account":"${my_email}","bind":true,"code":"function:google_authentication_new","verifyCode":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_email}' ORDER BY `create_time` DESC LIMIT 1;</t>
   </si>
   <si>
     <t>修改Google验证码</t>
@@ -131,7 +131,7 @@
     <t>{"secret":"$.data.secret"}</t>
   </si>
   <si>
-    <t>{"account":"${mobile}","areaNo":"${areaNo}","type":"modify-google-secret"}</t>
+    <t>{"account":"${my_email}","type":"modify-google-secret"}</t>
   </si>
   <si>
     <t>更新google验证码</t>
@@ -140,34 +140,34 @@
     <t>/api/forex-user/user/updateGoogleSecret</t>
   </si>
   <si>
-    <t>{"oldGoogleCode":"function:google_authentication_new_extra","newGoogleCode":"function:google_authentication_extra","verifyCode":"function:extract_code"}</t>
+    <t>{"oldGoogleCode":"function:google_authentication_new","newGoogleCode":"function:google_authentication_old","verifyCode":"function:extract_code"}</t>
   </si>
   <si>
     <t>设置支付密码</t>
   </si>
   <si>
-    <t>前置条件</t>
-  </si>
-  <si>
     <t>发送绑定支付密码验证码</t>
   </si>
   <si>
-    <t>{"account": "${mobile}", "areaNo": "${areaNo}", "type": "modify-trade-password"}</t>
+    <t>/api/forex-user/v2/user/sendCodeAfterLogin</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}","sendType":2,"type":"set-trade-password"}</t>
   </si>
   <si>
     <t>验证绑定支付密码验证码</t>
   </si>
   <si>
-    <t>/api/forex-user/user/isValidCode</t>
-  </si>
-  <si>
-    <t>{"account":"${mobile}","areaNo":"${areaNo}","code":"function:extract_code","type":"modify-trade-password"}</t>
+    <t>/api/forex-user/v2/user/verifyAfterLogin</t>
+  </si>
+  <si>
+    <t>{"code":"function:extract_code","checkType":3,"type":"set-trade-password"}</t>
   </si>
   <si>
     <t>{"code_key":"$.data"}</t>
   </si>
   <si>
-    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${mobile}'  ORDER BY create_time DESC  LIMIT 1;</t>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_account}'  ORDER BY create_time DESC  LIMIT 1;</t>
   </si>
   <si>
     <t>设置绑定支付密码123456</t>
@@ -176,12 +176,33 @@
     <t>/api/forex-user/user/setTradePwd</t>
   </si>
   <si>
-    <t>{"code":"${code_key}","tradePwd":"123456"}</t>
+    <t>{"emailCodeToken":"${code_key}","tradePwd":"123456"}</t>
+  </si>
+  <si>
+    <t>修改支付密码</t>
+  </si>
+  <si>
+    <t>修改支付密码111111</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/checkAccountTrade</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}","tradePwd":"123456"}</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/resetTradePwd</t>
+  </si>
+  <si>
+    <t>{"oldPwd":"123456","newPwd":"111111"}</t>
   </si>
   <si>
     <t>绑定手机号</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>修改绑定手机</t>
   </si>
   <si>
@@ -189,9 +210,6 @@
   </si>
   <si>
     <t>修改登录密码</t>
-  </si>
-  <si>
-    <t>修改支付密码</t>
   </si>
 </sst>
 </file>
@@ -1183,22 +1201,22 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:B16"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.1538461538462" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.0769230769231" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.3846153846154" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.92307692307692" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
+    <col min="7" max="7" width="55.2307692307692" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.6923076923077" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.3846153846154" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.625" style="3" customWidth="1"/>
@@ -1290,7 +1308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="34" spans="1:14">
+    <row r="3" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="84" spans="1:15">
+    <row r="4" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1358,9 +1376,6 @@
       </c>
       <c r="N4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1397,7 +1412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="34" spans="1:14">
+    <row r="6" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="84" spans="1:15">
+    <row r="7" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1465,9 +1480,6 @@
       </c>
       <c r="N7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="34" spans="1:14">
@@ -1478,16 +1490,16 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -1504,7 +1516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="84" spans="1:15">
+    <row r="9" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1540,9 +1552,6 @@
       </c>
       <c r="N9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1579,7 +1588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1589,42 +1598,154 @@
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13580"/>
+    <workbookView windowWidth="29140" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="104">
   <si>
     <t>case_module</t>
   </si>
@@ -86,6 +86,9 @@
     <t>获取google验证码kay</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
@@ -143,37 +146,61 @@
     <t>{"oldGoogleCode":"function:google_authentication_new","newGoogleCode":"function:google_authentication_old","verifyCode":"function:extract_code"}</t>
   </si>
   <si>
+    <t>发送验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/sendCodeAfterLogin</t>
+  </si>
+  <si>
+    <t>通过验证获取token</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/verifyAfterLogin</t>
+  </si>
+  <si>
+    <t>{"code":"function:extract_code","checkType":3,"type":"google-secret"}</t>
+  </si>
+  <si>
+    <t>{"google_code":"$.data"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_email}'  ORDER BY create_time DESC  LIMIT 1;</t>
+  </si>
+  <si>
+    <t>获取google密钥</t>
+  </si>
+  <si>
+    <t>绑定Google验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/bindGoogleCode</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}","code":"function:google_authentication_new","token":"${google_code}"}</t>
+  </si>
+  <si>
     <t>设置支付密码</t>
   </si>
   <si>
     <t>发送绑定支付密码验证码</t>
   </si>
   <si>
-    <t>/api/forex-user/v2/user/sendCodeAfterLogin</t>
-  </si>
-  <si>
     <t>{"account":"${my_account}","sendType":2,"type":"set-trade-password"}</t>
   </si>
   <si>
     <t>验证绑定支付密码验证码</t>
   </si>
   <si>
-    <t>/api/forex-user/v2/user/verifyAfterLogin</t>
-  </si>
-  <si>
     <t>{"code":"function:extract_code","checkType":3,"type":"set-trade-password"}</t>
   </si>
   <si>
     <t>{"code_key":"$.data"}</t>
   </si>
   <si>
-    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_account}'  ORDER BY create_time DESC  LIMIT 1;</t>
-  </si>
-  <si>
     <t>设置绑定支付密码123456</t>
   </si>
   <si>
-    <t>/api/forex-user/user/setTradePwd</t>
+    <t>/api/forex-user/v2/user/setTradePwd</t>
   </si>
   <si>
     <t>{"emailCodeToken":"${code_key}","tradePwd":"123456"}</t>
@@ -197,19 +224,121 @@
     <t>{"oldPwd":"123456","newPwd":"111111"}</t>
   </si>
   <si>
+    <t>通过验证码获取token</t>
+  </si>
+  <si>
+    <t>{"code":"function:extract_code","checkType":3,"type":"modify-google-secret"}</t>
+  </si>
+  <si>
+    <t>验证支付密码</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}","tradePwd":"111111"}</t>
+  </si>
+  <si>
+    <t>修改google验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/forgetGoogleCode</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}","tradePwd":"111111","code":"function:google_authentication_new","token":"${google_code}"}</t>
+  </si>
+  <si>
+    <t>修改登录密码</t>
+  </si>
+  <si>
+    <t>验证旧的登录密码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/verifyAccount</t>
+  </si>
+  <si>
+    <t>{"loginPassword":"Test#123"}</t>
+  </si>
+  <si>
+    <t>验证新的登录密码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/resetLoginPwd</t>
+  </si>
+  <si>
+    <t>{"oldPwd":"Test#123","newPwd":"Test#1234"}</t>
+  </si>
+  <si>
+    <t>修改绑定邮箱</t>
+  </si>
+  <si>
+    <t>{"account":"${my_email}","type":"bind-email"}</t>
+  </si>
+  <si>
+    <t>{"my_newEmail":"function:generate_email"}</t>
+  </si>
+  <si>
+    <t>{"code":"function:extract_code","checkType":3,"type":"bind-email"}</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/checkContactExist</t>
+  </si>
+  <si>
+    <t>{"account":"${my_newEmail}"}</t>
+  </si>
+  <si>
+    <t>{"account":"${my_newEmail}","type":"bind-email"}</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/setEmail</t>
+  </si>
+  <si>
+    <t>{"token":"${code_key}","email":"${my_newEmail}","oldEmail":"${my_email}","emailCode":"380308"}</t>
+  </si>
+  <si>
     <t>绑定手机号</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>修改绑定手机</t>
-  </si>
-  <si>
-    <t>修改绑定邮箱</t>
-  </si>
-  <si>
-    <t>修改登录密码</t>
+    <t>{"account":"${my_newEmail}","type":"bind-phone"}</t>
+  </si>
+  <si>
+    <t>{"code":"function:extract_code","checkType":3,"type":"bind-phone"}</t>
+  </si>
+  <si>
+    <t>{"code_key":"$.data","my_phone":"function:generate_phone"}</t>
+  </si>
+  <si>
+    <t>{"areaNo":"63","account":"${my_phone}"}</t>
+  </si>
+  <si>
+    <t>{"account":"${my_phone}","areaNo":"63","type":"bind-phone"}</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/setMobile</t>
+  </si>
+  <si>
+    <t>{"token":"${code_key}","mobile":"${my_phone}","areaNo":"63","mobileCode":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_phone}'  ORDER BY create_time DESC  LIMIT 1;</t>
+  </si>
+  <si>
+    <t>修改手机号</t>
+  </si>
+  <si>
+    <t>{"code":"function:extract_code","checkType":2,"type":"bind-phone"}</t>
+  </si>
+  <si>
+    <t>{"code_key":"$.data","my_newPhone":"function:generate_phone"}</t>
+  </si>
+  <si>
+    <t>{"areaNo":"63","account":"${my_newPhone}"}</t>
+  </si>
+  <si>
+    <t>{"account":"${my_newPhone}","areaNo":"63","type":"bind-phone"}</t>
+  </si>
+  <si>
+    <t>{"token":"${code_key}","mobile":"${my_newPhone}","oldMobile":"${my_phone}","areaNo":"63","oldAreaNo":"63","mobileCode":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_newPhone}'  ORDER BY create_time DESC  LIMIT 1;</t>
   </si>
 </sst>
 </file>
@@ -1198,14 +1327,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="$A35:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1287,25 +1416,28 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1319,27 +1451,30 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="84" spans="1:14">
@@ -1353,29 +1488,32 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1383,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1391,25 +1529,28 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1417,33 +1558,36 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="84" spans="1:14">
@@ -1451,43 +1595,46 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="34" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1496,24 +1643,24 @@
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="84" spans="1:14">
@@ -1521,37 +1668,37 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1559,70 +1706,70 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="17" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="34" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="17" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="34" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1636,73 +1783,105 @@
         <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1712,40 +1891,777 @@
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="84" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>22</v>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="34" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="84" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="34" spans="1:14">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="84" spans="1:14">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="17" spans="1:14">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" ht="84" spans="1:14">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:14">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="84" spans="1:14">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="17" spans="1:14">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="34" spans="1:14">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" ht="84" spans="1:14">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="14540"/>
+    <workbookView windowWidth="29140" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1330,11 +1330,11 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="$A35:$XFD35"/>
+      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="4" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1515,6 +1515,9 @@
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A5" s="2" t="s">
@@ -1590,7 +1593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="7" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1628,6 +1631,9 @@
       <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A8" s="2" t="s">
@@ -1663,7 +1669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="9" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1699,6 +1705,9 @@
       </c>
       <c r="N9" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1769,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="34" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="34" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1802,9 +1811,6 @@
       <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A13" s="2" t="s">
@@ -1981,7 +1987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="18" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2017,6 +2023,9 @@
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="17" spans="1:14">
@@ -2222,7 +2231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="25" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2255,6 +2264,9 @@
       </c>
       <c r="N25" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="17" spans="1:14">
@@ -2381,7 +2393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="84" spans="1:14">
+    <row r="30" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -2414,6 +2426,9 @@
       </c>
       <c r="N30" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="17" spans="1:14">
@@ -2478,7 +2493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" ht="84" spans="1:14">
+    <row r="33" ht="84" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -2509,6 +2524,9 @@
       <c r="N33" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O33" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" ht="17" spans="1:14">
       <c r="A34" s="2" t="s">
@@ -2539,7 +2557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" ht="84" spans="1:14">
+    <row r="35" ht="84" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -2573,6 +2591,9 @@
       <c r="N35" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O35" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" ht="17" spans="1:14">
       <c r="A36" s="2" t="s">
@@ -2632,7 +2653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" ht="84" spans="1:14">
+    <row r="38" ht="84" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2662,6 +2683,9 @@
       </c>
       <c r="N38" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="13580"/>
+    <workbookView windowWidth="29120" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="111">
   <si>
     <t>case_module</t>
   </si>
@@ -275,18 +275,30 @@
     <t>{"my_newEmail":"function:generate_email"}</t>
   </si>
   <si>
+    <t>验证验证码获取token</t>
+  </si>
+  <si>
     <t>{"code":"function:extract_code","checkType":3,"type":"bind-email"}</t>
   </si>
   <si>
+    <t>检查新邮箱地址</t>
+  </si>
+  <si>
     <t>/api/forex-user/v2/user/checkContactExist</t>
   </si>
   <si>
     <t>{"account":"${my_newEmail}"}</t>
   </si>
   <si>
+    <t>发送新邮箱地址验证码</t>
+  </si>
+  <si>
     <t>{"account":"${my_newEmail}","type":"bind-email"}</t>
   </si>
   <si>
+    <t>绑定邮箱验证码</t>
+  </si>
+  <si>
     <t>/api/forex-user/v2/user/setEmail</t>
   </si>
   <si>
@@ -305,10 +317,19 @@
     <t>{"code_key":"$.data","my_phone":"function:generate_phone"}</t>
   </si>
   <si>
+    <t>验证手机号</t>
+  </si>
+  <si>
     <t>{"areaNo":"63","account":"${my_phone}"}</t>
   </si>
   <si>
+    <t>发送手机验证码</t>
+  </si>
+  <si>
     <t>{"account":"${my_phone}","areaNo":"63","type":"bind-phone"}</t>
+  </si>
+  <si>
+    <t>绑定新手机号</t>
   </si>
   <si>
     <t>/api/forex-user/v2/user/setMobile</t>
@@ -1330,11 +1351,11 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1440,7 +1461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="17" spans="1:14">
+    <row r="3" s="2" customFormat="1" ht="17" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1476,8 +1497,11 @@
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1515,9 +1539,6 @@
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A5" s="2" t="s">
@@ -1556,7 +1577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="17" spans="1:14">
+    <row r="6" s="2" customFormat="1" ht="17" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1592,8 +1613,11 @@
       <c r="N6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1631,11 +1655,8 @@
       <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="17" spans="1:14">
+    </row>
+    <row r="8" s="2" customFormat="1" ht="17" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1668,8 +1689,11 @@
       <c r="N8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1705,9 +1729,6 @@
       </c>
       <c r="N9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="O9" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1778,7 +1799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="34" spans="1:14">
+    <row r="12" s="2" customFormat="1" ht="34" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1811,8 +1832,11 @@
       <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1848,9 +1872,6 @@
       </c>
       <c r="N13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="O13" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1955,7 +1976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:14">
+    <row r="17" ht="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1986,8 +2007,11 @@
       <c r="N17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2023,9 +2047,6 @@
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="O18" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="17" spans="1:14">
@@ -2198,7 +2219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="17" spans="1:14">
+    <row r="24" s="2" customFormat="1" ht="17" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2208,6 +2229,9 @@
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2230,8 +2254,11 @@
       <c r="N24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2241,6 +2268,9 @@
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2254,7 +2284,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>55</v>
@@ -2265,9 +2295,6 @@
       <c r="N25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A26" s="2" t="s">
@@ -2279,11 +2306,14 @@
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>22</v>
@@ -2292,7 +2322,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2310,6 +2340,9 @@
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
@@ -2323,7 +2356,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2341,11 +2374,14 @@
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>22</v>
@@ -2354,7 +2390,7 @@
         <v>23</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2362,15 +2398,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="17" spans="1:14">
+    <row r="29" s="2" customFormat="1" ht="17" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
@@ -2385,23 +2424,29 @@
         <v>23</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="84" spans="1:15">
+      <c r="O29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
@@ -2416,10 +2461,10 @@
         <v>23</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>45</v>
@@ -2427,25 +2472,25 @@
       <c r="N30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>22</v>
@@ -2454,7 +2499,7 @@
         <v>23</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2462,15 +2507,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="17" spans="1:14">
+    <row r="32" s="2" customFormat="1" ht="17" spans="1:15">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -2485,29 +2533,35 @@
         <v>23</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" ht="84" spans="1:15">
+      <c r="O32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="84" spans="1:14">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
@@ -2516,27 +2570,27 @@
         <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:14">
+    </row>
+    <row r="34" ht="17" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
@@ -2551,21 +2605,27 @@
         <v>23</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" ht="84" spans="1:15">
+      <c r="O34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="84" spans="1:14">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>20</v>
@@ -2580,19 +2640,16 @@
         <v>23</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="O35" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:14">
@@ -2600,16 +2657,19 @@
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
@@ -2618,21 +2678,24 @@
         <v>23</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" ht="34" spans="1:14">
+    <row r="37" ht="34" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
@@ -2647,28 +2710,34 @@
         <v>23</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="84" spans="1:14">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" ht="84" spans="1:15">
-      <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
       </c>
@@ -2676,16 +2745,13 @@
         <v>23</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="O38" s="2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="112">
   <si>
     <t>case_module</t>
   </si>
@@ -302,7 +302,10 @@
     <t>/api/forex-user/v2/user/setEmail</t>
   </si>
   <si>
-    <t>{"token":"${code_key}","email":"${my_newEmail}","oldEmail":"${my_email}","emailCode":"380308"}</t>
+    <t>{"token":"${code_key}","email":"${my_newEmail}","oldEmail":"${my_email}","emailCode":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_newEmail}'  ORDER BY create_time DESC  LIMIT 1;</t>
   </si>
   <si>
     <t>绑定手机号</t>
@@ -1351,11 +1354,11 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2330,7 +2333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="17" spans="1:14">
+    <row r="27" s="2" customFormat="1" ht="17" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -2363,8 +2366,11 @@
       <c r="N27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="34" spans="1:14">
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2393,7 +2399,9 @@
         <v>91</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="N28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
@@ -2424,7 +2432,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2440,7 +2448,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
@@ -2461,13 +2469,13 @@
         <v>23</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>25</v>
@@ -2478,13 +2486,13 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -2499,7 +2507,7 @@
         <v>23</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2512,13 +2520,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -2533,7 +2541,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2549,19 +2557,19 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
@@ -2570,10 +2578,10 @@
         <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>25</v>
@@ -2584,7 +2592,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -2605,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>25</v>
@@ -2619,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -2640,13 +2648,13 @@
         <v>23</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>25</v>
@@ -2657,13 +2665,13 @@
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
@@ -2678,7 +2686,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>25</v>
@@ -2689,13 +2697,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
@@ -2710,7 +2718,7 @@
         <v>23</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>25</v>
@@ -2724,19 +2732,19 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
@@ -2745,10 +2753,10 @@
         <v>23</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>25</v>

--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="111">
   <si>
     <t>case_module</t>
   </si>
@@ -233,16 +233,13 @@
     <t>验证支付密码</t>
   </si>
   <si>
-    <t>{"account":"${my_account}","tradePwd":"111111"}</t>
-  </si>
-  <si>
     <t>修改google验证码</t>
   </si>
   <si>
     <t>/api/forex-user/v2/user/forgetGoogleCode</t>
   </si>
   <si>
-    <t>{"account":"${my_account}","tradePwd":"111111","code":"function:google_authentication_new","token":"${google_code}"}</t>
+    <t>{"account":"${my_account}","tradePwd":"123456","code":"function:google_authentication_new","token":"${google_code}"}</t>
   </si>
   <si>
     <t>修改登录密码</t>
@@ -1354,11 +1351,11 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="$A8:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1924,6 +1921,9 @@
       <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1958,6 +1958,9 @@
       <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1992,6 +1995,7 @@
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2027,6 +2031,7 @@
       <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2065,6 +2070,7 @@
       <c r="D19" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2099,6 +2105,7 @@
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2131,22 +2138,23 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2159,28 +2167,31 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2193,28 +2204,31 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2227,7 +2241,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -2248,10 +2262,10 @@
         <v>23</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="2" t="s">
@@ -2266,13 +2280,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
@@ -2287,7 +2301,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>55</v>
@@ -2304,28 +2318,28 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2338,13 +2352,13 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -2359,7 +2373,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2375,32 +2389,32 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>25</v>
@@ -2411,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
@@ -2432,7 +2446,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2448,13 +2462,13 @@
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
@@ -2469,13 +2483,13 @@
         <v>23</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="M30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>25</v>
@@ -2486,28 +2500,28 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2520,13 +2534,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -2541,7 +2555,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2557,31 +2571,31 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>25</v>
@@ -2592,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -2613,7 +2627,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>25</v>
@@ -2627,13 +2641,13 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>20</v>
@@ -2648,13 +2662,13 @@
         <v>23</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="M35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>25</v>
@@ -2665,19 +2679,19 @@
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
@@ -2686,7 +2700,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>25</v>
@@ -2697,13 +2711,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
@@ -2718,7 +2732,7 @@
         <v>23</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>25</v>
@@ -2732,20 +2746,20 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
       </c>
@@ -2753,10 +2767,10 @@
         <v>23</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>25</v>

--- a/data/api_auto/uu_api/security.xlsx
+++ b/data/api_auto/uu_api/security.xlsx
@@ -1351,11 +1351,11 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="$A8:$XFD11"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1656,7 +1656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="17" spans="1:15">
+    <row r="8" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1689,9 +1689,6 @@
       <c r="N8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="2">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="84" spans="1:14">
       <c r="A9" s="2" t="s">
@@ -1799,7 +1796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="34" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="34" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1832,11 +1829,8 @@
       <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="84" spans="1:14">
+    </row>
+    <row r="13" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1872,6 +1866,9 @@
       </c>
       <c r="N13" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="17" spans="1:14">
@@ -1982,7 +1979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:15">
+    <row r="17" ht="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1995,7 +1992,6 @@
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2014,11 +2010,8 @@
       <c r="N17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="84" spans="1:14">
+    </row>
+    <row r="18" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2055,6 +2048,9 @@
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="17" spans="1:14">
@@ -2236,7 +2232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="17" spans="1:15">
+    <row r="24" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2271,11 +2267,8 @@
       <c r="N24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="84" spans="1:14">
+    </row>
+    <row r="25" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2311,6 +2304,9 @@
       </c>
       <c r="N25" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O25" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="17" spans="1:14">
@@ -2347,7 +2343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="17" spans="1:15">
+    <row r="27" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -2380,11 +2376,8 @@
       <c r="N27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="84" spans="1:14">
+    </row>
+    <row r="28" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2419,8 +2412,11 @@
       <c r="N28" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="17" spans="1:15">
+      <c r="O28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -2453,11 +2449,8 @@
       <c r="N29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="84" spans="1:14">
+    </row>
+    <row r="30" s="2" customFormat="1" ht="84" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -2493,6 +2486,9 @@
       </c>
       <c r="N30" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O30" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="17" spans="1:14">
@@ -2529,7 +2525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="17" spans="1:15">
+    <row r="32" s="2" customFormat="1" ht="17" spans="1:14">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -2562,11 +2558,8 @@
       <c r="N32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" ht="84" spans="1:14">
+    </row>
+    <row r="33" ht="84" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -2600,8 +2593,11 @@
       <c r="N33" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" ht="17" spans="1:15">
+      <c r="O33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:14">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2632,11 +2628,8 @@
       <c r="N34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" ht="84" spans="1:14">
+    </row>
+    <row r="35" ht="84" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -2673,6 +2666,9 @@
       <c r="N35" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O35" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" ht="17" spans="1:14">
       <c r="A36" s="2" t="s">
@@ -2706,7 +2702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" ht="34" spans="1:15">
+    <row r="37" ht="34" spans="1:14">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -2737,11 +2733,8 @@
       <c r="N37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" ht="84" spans="1:14">
+    </row>
+    <row r="38" ht="84" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2774,6 +2767,9 @@
       </c>
       <c r="N38" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O38" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
